--- a/src/main/resources/excel/7 Present Sentence.xlsx
+++ b/src/main/resources/excel/7 Present Sentence.xlsx
@@ -5,19 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Making Friends" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Expressing Regret" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Checking for Understanding-As-1" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Checking for Understanding-Aski" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Agreeing and Disagreeing3" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Agreeing and Disagreeing2" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Agreeing and Disagreeing" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Expressing Indifference2" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="Expressing Indifference" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Expressing Obligation2" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Checking for Understanding-Aski" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Agreeing and Disagreeing" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Expressing Indifference" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -292,6 +287,141 @@
     <t xml:space="preserve">aɪ rəˈɡrɛt ðə θɪŋz aɪ ˈdɪdənt du wɛn aɪ hæd ðə ʧæns</t>
   </si>
   <si>
+    <t xml:space="preserve">Do you understand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo entiendes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju ˌʌndərˈstænd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you following me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Me estás siguiendo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɑr ju ˈfɑloʊɪŋ mi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you understand what I mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Entiendes lo que quiero decir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju ˌʌndərˈstænd wɑt aɪ min?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you understand what I'm saying?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Entiendes lo que te estoy diciendo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju ˌʌndərˈstænd wɑt aɪm ˈseɪɪŋ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any questions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Alguna pregunta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈɛni ˈkwɛsʧənz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Entiendo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɡɑt ɪt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't get it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No lo entiendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt ɡɛt ɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, I didn't get your point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo siento, no entendí tu punto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈsɑri, aɪ ˈdɪdənt ɡɛt jʊər pɔɪnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué quieres decir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt du ju min?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not sure I got your point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No estoy seguro de haber entendido tu punto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm nɑt ʃʊr aɪ ɡɑt jʊər pɔɪnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I beg your pardon, but I don't quite understand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te ruego que me disculpes, pero no entiendo del todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ bɛɡ jʊər ˈpɑrdən, bʌt aɪ doʊnt kwaɪt ˌʌndərˈstænd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't quite follow you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No te sigo del todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt kwaɪt ˈfɑloʊ ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm sorry. I don't understand what you mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo siento. No entiendo a que te refieres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈsɑri. aɪ doʊnt ˌʌndərˈstænd wɑt ju min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, I didn't quite hear what you said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo siento, no escuché bien lo que dijiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈsɑri, aɪ ˈdɪdənt kwaɪt hir wɑt ju sɛd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could you clarify that, please?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podrías aclarar eso, por favor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kʊd ju ˈklɛrəˌfaɪ ðæt, pliz?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Could you explain that, please?</t>
   </si>
   <si>
@@ -418,139 +548,274 @@
     <t xml:space="preserve">aɪ ˌʌndərˈstænd wɑt ju min</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you understand?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo entiendes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du ju ˌʌndərˈstænd?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you following me?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Me estás siguiendo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɑr ju ˈfɑloʊɪŋ mi?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you understand what I mean?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Entiendes lo que quiero decir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du ju ˌʌndərˈstænd wɑt aɪ min?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you understand what I'm saying?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Entiendes lo que te estoy diciendo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du ju ˌʌndərˈstænd wɑt aɪm ˈseɪɪŋ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any questions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Alguna pregunta?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈɛni ˈkwɛsʧənz?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Got it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Entiendo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɡɑt ɪt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't get it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No lo entiendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt ɡɛt ɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry, I didn't get your point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo siento, no entendí tu punto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈsɑri, aɪ ˈdɪdənt ɡɛt jʊər pɔɪnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What do you mean?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Qué quieres decir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wɑt du ju min?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm not sure I got your point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No estoy seguro de haber entendido tu punto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪm nɑt ʃʊr aɪ ɡɑt jʊər pɔɪnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I beg your pardon, but I don't quite understand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Te ruego que me disculpes, pero no entiendo del todo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ bɛɡ jʊər ˈpɑrdən, bʌt aɪ doʊnt kwaɪt ˌʌndərˈstænd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't quite follow you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No te sigo del todo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt kwaɪt ˈfɑloʊ ju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm sorry. I don't understand what you mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo siento. No entiendo a que te refieres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪm ˈsɑri. aɪ doʊnt ˌʌndərˈstænd wɑt ju min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry, I didn't quite hear what you said</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo siento, no escuché bien lo que dijiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈsɑri, aɪ ˈdɪdənt kwaɪt hir wɑt ju sɛd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could you clarify that, please?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Podrías aclarar eso, por favor?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kʊd ju ˈklɛrəˌfaɪ ðæt, pliz?</t>
+    <t xml:space="preserve">Agreeing and Disagreeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acuerdo y desacuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">əˈɡriɪŋ ænd dɪsəˈɡriɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I completely agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estoy completamente de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ kəmˈplitli əˈɡri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're absolutely right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estás absolutamente en lo correcto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jʊr ˌæbsəˈlutli raɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I agree with you entirely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy completamente de acuerdo contigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ əˈɡri wɪð ju ɪnˈtaɪərli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I totally agree with you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estoy totalmente de acuerdo contigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈtoʊtəli əˈɡri wɪð ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I couldn't agree more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No podría estar mas de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈkʊdənt əˈɡri mɔr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exactly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exactamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪɡˈzæktli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌæbsəˈlutli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tienes razón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jʊr raɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo también</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mi tu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estoy de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ əˈɡri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see exactly what you mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veo exactamente lo que quieres decir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ si ɪɡˈzæktli wɑt ju min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's exactly what I think</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es exactamente lo que pienso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts ɪɡˈzæktli wɑt aɪ θɪŋk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no doubt about it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay duda de ello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɪz noʊ daʊt əˈbaʊt ɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I agree up to a point, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy de acuerdo hasta cierto punto, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ əˈɡri ʌp tu ə pɔɪnt, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's partly true, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso es parcialmente cierto, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts ˈpɑrtli tru, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That may be true, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso puede ser cierto, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæt meɪ bi tru, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see your point, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veo tu punto, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ si jʊər pɔɪnt, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I guess so, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supongo que si, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ɡɛs soʊ, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That seems obvious, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso parece obvio, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæt simz ˈɑbviəs, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not so sure about that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No estoy tan seguro de eso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm nɑt soʊ ʃʊr əˈbaʊt ðæt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No estoy de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt əˈɡri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't agree with you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No estoy de acuerdo contigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt əˈɡri wɪð ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I totally disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy en total desacuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈtoʊtəli dɪsəˈɡri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm sorry, but I disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo siento pero no estoy de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈsɑri, bʌt aɪ dɪsəˈɡri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutamente no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌæbsəˈlutli nɑt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm afraid I can't agree with you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me temo que no puedo estar de acuerdo contigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm əˈfreɪd aɪ kænt əˈɡri wɪð ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's not right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso no está bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts nɑt raɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's not always true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso no siempre es cierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts nɑt ˈɔlˌweɪz tru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't think so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No lo creo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt θɪŋk soʊ</t>
   </si>
   <si>
     <t xml:space="preserve">No, that's not true</t>
@@ -571,274 +836,133 @@
     <t xml:space="preserve">noʊ weɪ</t>
   </si>
   <si>
-    <t xml:space="preserve">That's partly true, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso es parcialmente cierto, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðæts ˈpɑrtli tru, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That may be true, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso puede ser cierto, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðæt meɪ bi tru, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see your point, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veo tu punto, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ si jʊər pɔɪnt, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I guess so, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supongo que si, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ ɡɛs soʊ, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That seems obvious, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso parece obvio, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðæt simz ˈɑbviəs, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm not so sure about that</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No estoy tan seguro de eso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪm nɑt soʊ ʃʊr əˈbaʊt ðæt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No estoy de acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt əˈɡri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't agree with you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No estoy de acuerdo contigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt əˈɡri wɪð ju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I totally disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estoy en total desacuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ ˈtoʊtəli dɪsəˈɡri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm sorry, but I disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo siento pero no estoy de acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪm ˈsɑri, bʌt aɪ dɪsəˈɡri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutely not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutamente no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˌæbsəˈlutli nɑt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm afraid I can't agree with you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me temo que no puedo estar de acuerdo contigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪm əˈfreɪd aɪ kænt əˈɡri wɪð ju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's not right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso no está bien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðæts nɑt raɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's not always true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso no siempre es cierto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðæts nɑt ˈɔlˌweɪz tru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't think so</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No lo creo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt θɪŋk soʊ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreeing and Disagreeing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acuerdo y desacuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">əˈɡriɪŋ ænd dɪsəˈɡriɪŋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I completely agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estoy completamente de acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ kəmˈplitli əˈɡri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You're absolutely right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estás absolutamente en lo correcto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jʊr ˌæbsəˈlutli raɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I agree with you entirely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estoy completamente de acuerdo contigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ əˈɡri wɪð ju ɪnˈtaɪərli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I totally agree with you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estoy totalmente de acuerdo contigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ ˈtoʊtəli əˈɡri wɪð ju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I couldn't agree more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No podría estar mas de acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ ˈkʊdənt əˈɡri mɔr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exactly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exactamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪɡˈzæktli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˌæbsəˈlutli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You're right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tienes razón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jʊr raɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me too</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yo también</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mi tu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estoy de acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ əˈɡri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see exactly what you mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veo exactamente lo que quieres decir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ si ɪɡˈzæktli wɑt ju min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's exactly what I think</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es exactamente lo que pienso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðæts ɪɡˈzæktli wɑt aɪ θɪŋk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is no doubt about it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No hay duda de ello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðɛr ɪz noʊ daʊt əˈbaʊt ɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I agree up to a point, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estoy de acuerdo hasta cierto punto, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ əˈɡri ʌp tu ə pɔɪnt, bʌt</t>
+    <t xml:space="preserve">Expressing Indifference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expresando indiferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪkˈsprɛsɪŋ ɪnˈdɪfərəns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who cares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quién le importa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hu kɛrz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No me importa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt kɛr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt maɪnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't mind whatever you do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No me importa lo que hagas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt maɪnd ˌwʌˈtɛvər ju du</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It makes no difference to me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hace la diferencia para mí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪt meɪks noʊ ˈdɪfərəns tu mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do what you like. I don't care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has lo que quieras. No me importa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du wɑt ju laɪk. aɪ doʊnt kɛr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It doesn't matter to me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪt ˈdʌzənt ˈmætər tu mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Y qué?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soʊ wɑt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's all the same to me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo es lo mismo para mí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ɔl ðə seɪm tu mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why should I care?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Por qué debería importarme?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waɪ ʃʊd aɪ kɛr?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's your decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es tu decisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts jʊər dɪˈsɪʒən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wouldn't mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No me importaría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ ˈwʊdənt maɪnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do as you like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haz como quieras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du æz ju laɪk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whatever you want</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que quieras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌwʌˈtɛvər ju wɑnt</t>
   </si>
   <si>
     <t xml:space="preserve">You can say whatever you like</t>
@@ -857,135 +981,6 @@
   </si>
   <si>
     <t xml:space="preserve">aɪ ˈkʊdənt kɛr lɛs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expressing Indifference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expresando indiferencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪkˈsprɛsɪŋ ɪnˈdɪfərəns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who cares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A quién le importa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hu kɛrz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No me importa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt kɛr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt maɪnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't mind whatever you do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No me importa lo que hagas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt maɪnd ˌwʌˈtɛvər ju du</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It makes no difference to me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No hace la diferencia para mí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪt meɪks noʊ ˈdɪfərəns tu mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do what you like. I don't care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has lo que quieras. No me importa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du wɑt ju laɪk. aɪ doʊnt kɛr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It doesn't matter to me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪt ˈdʌzənt ˈmætər tu mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So what?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Y qué?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soʊ wɑt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's all the same to me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo es lo mismo para mí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪts ɔl ðə seɪm tu mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why should I care?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Por qué debería importarme?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waɪ ʃʊd aɪ kɛr?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's your decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es tu decisión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪts jʊər dɪˈsɪʒən</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wouldn't mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No me importaría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ ˈwʊdənt maɪnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do as you like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haz como quieras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du æz ju laɪk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whatever you want</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo que quieras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˌwʌˈtɛvər ju wɑnt</t>
   </si>
   <si>
     <t xml:space="preserve">It is necessary that you follow this guideline</t>
@@ -1311,16 +1306,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,7 +1522,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1530,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="38.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1540,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1560,7 +1551,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1571,7 +1562,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1582,7 +1573,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1593,7 +1584,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1604,7 +1595,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1615,7 +1606,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1626,7 +1617,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1637,7 +1628,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1648,7 +1639,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1659,7 +1650,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1670,7 +1661,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1681,7 +1672,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1692,7 +1683,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1703,29 +1694,29 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1734,102 +1725,6 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF8E86AE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1850,7 +1745,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="76.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="53.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +1755,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1871,7 +1766,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1882,7 +1777,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1893,7 +1788,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1904,7 +1799,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1915,7 +1810,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1926,7 +1821,7 @@
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1937,7 +1832,7 @@
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1948,7 +1843,7 @@
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1959,7 +1854,7 @@
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1970,7 +1865,7 @@
       <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1981,7 +1876,7 @@
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1992,7 +1887,7 @@
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2003,7 +1898,7 @@
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2024,17 +1919,17 @@
     <tabColor rgb="FF8E86AE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="39.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,7 +1939,7 @@
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2055,7 +1950,7 @@
       <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2066,7 +1961,7 @@
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2077,7 +1972,7 @@
       <c r="B4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2088,7 +1983,7 @@
       <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2099,7 +1994,7 @@
       <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2110,7 +2005,7 @@
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2121,7 +2016,7 @@
       <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2132,7 +2027,7 @@
       <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2143,7 +2038,7 @@
       <c r="B10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2154,7 +2049,7 @@
       <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2165,7 +2060,7 @@
       <c r="B12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2176,7 +2071,7 @@
       <c r="B13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2187,8 +2082,173 @@
       <c r="B14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2257,7 @@
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2208,182 +2268,369 @@
     <tabColor rgb="FF8E86AE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>181</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>187</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>190</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>199</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>208</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>211</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>217</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2403,685 +2650,271 @@
     <tabColor rgb="FF8E86AE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.4"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF8E86AE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.45"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF8E86AE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.27"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF8E86AE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.05"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF8E86AE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="37.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
